--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43245,6 +43245,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>35800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43280,6 +43280,41 @@
         <v>35800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>37800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43315,6 +43315,43 @@
         <v>37800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43352,6 +43352,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43389,6 +43389,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>148200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43424,6 +43424,41 @@
         <v>148200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>38500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43459,6 +43459,41 @@
         <v>38500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43494,6 +43494,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43566,6 +43566,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>158600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43601,6 +43601,41 @@
         <v>158600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43636,6 +43636,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>61400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,76 @@
         <v>61400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>361600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>174000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43741,6 +43741,76 @@
         <v>174000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>26300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43811,6 +43811,41 @@
         <v>26300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43846,6 +43846,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>27800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43881,6 +43881,41 @@
         <v>27800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43916,6 +43916,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>95500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43951,6 +43951,76 @@
         <v>95500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>125800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44021,6 +44021,41 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>54500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44056,6 +44056,41 @@
         <v>54500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>750300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77901,6 +77901,41 @@
         <v>750300</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>54500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2208"/>
+  <dimension ref="A1:I2209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77936,6 +77936,41 @@
         <v>54500</v>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>58000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2209"/>
+  <dimension ref="A1:I2210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77971,6 +77971,41 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>79700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2210"/>
+  <dimension ref="A1:I2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78006,6 +78006,41 @@
         <v>79700</v>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>403800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2211"/>
+  <dimension ref="A1:I2212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78041,6 +78041,41 @@
         <v>403800</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>105400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78076,6 +78076,41 @@
         <v>105400</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>117500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2213"/>
+  <dimension ref="A1:I2214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78111,6 +78111,41 @@
         <v>117500</v>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>42800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2214"/>
+  <dimension ref="A1:I2215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78146,6 +78146,41 @@
         <v>42800</v>
       </c>
     </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>213300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2215"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78181,6 +78181,41 @@
         <v>213300</v>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2216"/>
+  <dimension ref="A1:I2217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78216,6 +78216,41 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>312000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2217"/>
+  <dimension ref="A1:I2218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78251,6 +78251,41 @@
         <v>312000</v>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>84500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2218"/>
+  <dimension ref="A1:I2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78286,6 +78286,41 @@
         <v>84500</v>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>194000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2219"/>
+  <dimension ref="A1:I2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78321,6 +78321,41 @@
         <v>194000</v>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>271200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2220"/>
+  <dimension ref="A1:I2221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78356,6 +78356,41 @@
         <v>271200</v>
       </c>
     </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2221"/>
+  <dimension ref="A1:I2222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78391,6 +78391,41 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>6300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2928"/>
+  <dimension ref="A1:I2929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103136,6 +103136,41 @@
         <v>6300</v>
       </c>
     </row>
+    <row r="2929">
+      <c r="A2929" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2929" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2929" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2929" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2929" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2929" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2929" t="n">
+        <v>81500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2929"/>
+  <dimension ref="A1:I2930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103171,6 +103171,41 @@
         <v>81500</v>
       </c>
     </row>
+    <row r="2930">
+      <c r="A2930" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2930" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2930" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2930" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2930" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2930" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2930" t="n">
+        <v>126200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2930"/>
+  <dimension ref="A1:I2931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103206,6 +103206,41 @@
         <v>126200</v>
       </c>
     </row>
+    <row r="2931">
+      <c r="A2931" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2931" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2931" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2931" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2931" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2931" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2931" t="n">
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2931"/>
+  <dimension ref="A1:I2932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103241,6 +103241,41 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="2932">
+      <c r="A2932" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2932" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2932" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2932" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2932" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2932" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2932" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2932"/>
+  <dimension ref="A1:I2933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103276,6 +103276,41 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="2933">
+      <c r="A2933" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2933" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2933" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2933" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2933" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2933" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2933" t="n">
+        <v>133000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2933"/>
+  <dimension ref="A1:I2934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103311,6 +103311,41 @@
         <v>133000</v>
       </c>
     </row>
+    <row r="2934">
+      <c r="A2934" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2934" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2934" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2934" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2934" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H2934" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2934" t="n">
+        <v>169400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2934"/>
+  <dimension ref="A1:I2935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103346,6 +103346,41 @@
         <v>169400</v>
       </c>
     </row>
+    <row r="2935">
+      <c r="A2935" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2935" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2935" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2935" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2935" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2935" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2935" t="n">
+        <v>32500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2935"/>
+  <dimension ref="A1:I2936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103381,6 +103381,41 @@
         <v>32500</v>
       </c>
     </row>
+    <row r="2936">
+      <c r="A2936" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2936" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2936" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2936" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2936" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2936" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2936" t="n">
+        <v>112700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2936"/>
+  <dimension ref="A1:I2937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103416,6 +103416,41 @@
         <v>112700</v>
       </c>
     </row>
+    <row r="2937">
+      <c r="A2937" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2937" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2937" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2937" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2937" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2937" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2937" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2937"/>
+  <dimension ref="A1:I2938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103451,6 +103451,41 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="2938">
+      <c r="A2938" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2938" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2938" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2938" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2938" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2938" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2938" t="n">
+        <v>157700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2938"/>
+  <dimension ref="A1:I2940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103486,6 +103486,76 @@
         <v>157700</v>
       </c>
     </row>
+    <row r="2939">
+      <c r="A2939" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2939" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2939" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2939" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2939" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2939" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2939" t="n">
+        <v>95200</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2940" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2940" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2940" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2940" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2940" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H2940" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2940" t="n">
+        <v>193700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2940"/>
+  <dimension ref="A1:I2941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103556,6 +103556,41 @@
         <v>193700</v>
       </c>
     </row>
+    <row r="2941">
+      <c r="A2941" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2941" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2941" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2941" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2941" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2941" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2941" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2941" t="n">
+        <v>56600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2941"/>
+  <dimension ref="A1:I2944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103591,6 +103591,111 @@
         <v>56600</v>
       </c>
     </row>
+    <row r="2942">
+      <c r="A2942" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2942" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2942" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2942" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2942" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2942" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H2942" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2942" t="n">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2943" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2943" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2943" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F2943" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2943" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H2943" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2943" t="n">
+        <v>54100</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2944" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2944" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2944" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2944" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2944" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2944" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2944" t="n">
+        <v>134900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2944"/>
+  <dimension ref="A1:I2945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103696,6 +103696,41 @@
         <v>134900</v>
       </c>
     </row>
+    <row r="2945">
+      <c r="A2945" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2945" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2945" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2945" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G2945" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2945" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2945" t="n">
+        <v>14800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2945"/>
+  <dimension ref="A1:I2946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103731,6 +103731,41 @@
         <v>14800</v>
       </c>
     </row>
+    <row r="2946">
+      <c r="A2946" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2946" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2946" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2946" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2946" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H2946" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2946" t="n">
+        <v>59300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0106.xlsx
+++ b/data/0106.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2946"/>
+  <dimension ref="A1:I2949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103766,6 +103766,113 @@
         <v>59300</v>
       </c>
     </row>
+    <row r="2947">
+      <c r="A2947" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2947" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2947" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2947" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G2947" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2947" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2947" t="n">
+        <v>54100</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2948" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2948" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2948" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2948" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2948" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2948" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="D2949" t="inlineStr">
+        <is>
+          <t>REXIT</t>
+        </is>
+      </c>
+      <c r="E2949" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2949" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2949" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H2949" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2949" t="n">
+        <v>20500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
